--- a/Data/Gender_Cleaned_Subset.xlsx
+++ b/Data/Gender_Cleaned_Subset.xlsx
@@ -1,15 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yi Zhen\Documents\GitHub\BT4015\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611D7588-AD63-4154-8291-2510C774192B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="5280" yWindow="620" windowWidth="11530" windowHeight="9880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -121,8 +138,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +202,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -231,7 +256,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,9 +288,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,6 +340,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,14 +533,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -507,7 +573,7 @@
         <v>2066650</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -521,7 +587,7 @@
         <v>84700</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -535,7 +601,7 @@
         <v>142790</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -549,7 +615,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -563,7 +629,7 @@
         <v>80550</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -577,7 +643,7 @@
         <v>78520</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -591,7 +657,7 @@
         <v>70120</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -605,7 +671,7 @@
         <v>41880</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -619,7 +685,7 @@
         <v>96380</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -633,7 +699,7 @@
         <v>48360</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -647,7 +713,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -661,7 +727,7 @@
         <v>55860</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -675,7 +741,7 @@
         <v>116070</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -689,7 +755,7 @@
         <v>39670</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -703,7 +769,7 @@
         <v>130840</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -717,7 +783,7 @@
         <v>51260</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -731,7 +797,7 @@
         <v>24520</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -745,7 +811,7 @@
         <v>25400</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -759,7 +825,7 @@
         <v>9130</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -773,7 +839,7 @@
         <v>74570</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -787,7 +853,7 @@
         <v>88520</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -801,7 +867,7 @@
         <v>50820</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -815,7 +881,7 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -829,7 +895,7 @@
         <v>51930</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -843,7 +909,7 @@
         <v>126890</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -857,7 +923,7 @@
         <v>60530</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -871,7 +937,7 @@
         <v>132900</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -885,7 +951,7 @@
         <v>11700</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -899,7 +965,7 @@
         <v>63960</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -913,7 +979,7 @@
         <v>127150</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -925,6 +991,24 @@
       </c>
       <c r="D32">
         <v>112140</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <f>SUM(B3:B32)</f>
+        <v>4010200</v>
+      </c>
+      <c r="C34">
+        <f>SUM(C3:C32)</f>
+        <v>1960980</v>
+      </c>
+      <c r="D34">
+        <f>SUM(D3:D32)</f>
+        <v>2049270</v>
+      </c>
+      <c r="E34">
+        <f>SUM(C34:D34)</f>
+        <v>4010250</v>
       </c>
     </row>
   </sheetData>
